--- a/codebooks/colorshape_clean_codebook.xlsx
+++ b/codebooks/colorshape_clean_codebook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">incorrect = 0, correct = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_sessions</t>
   </si>
   <si>
     <t xml:space="preserve">valid_trials</t>
@@ -485,9 +488,20 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
